--- a/biology/Histoire de la zoologie et de la botanique/Robert_Wilson_Gibbes/Robert_Wilson_Gibbes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Wilson_Gibbes/Robert_Wilson_Gibbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Wilson Gibbes (Charleston, Caroline du Sud, 8 juillet 1809 - Columbia, 15 octobre 1866) est un naturaliste et médecin américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibbes est né à Charleston en 1809. Son père, avocat, s'appelait William Hasell Gibbes et sa mère Mary Wilson. En 1827 il fut diplômé de l'Université de Caroline du Sud et devint par la suite professeur assistant de géologie et de chimie.
 Durant les étés de 1827 et 1828 il étudia la médecine à Philadelphie, pour s'inscrire ensuite au Collège médical de l'État de Caroline du Sud, où il obtint son doctorat de médecine en 1830. Après avoir démissionné de son poste à l'Université de Caroline du Sud en 1934, Gibbes emménagea à Columbia et ouvrit une consultation médicale où il travailla durant le reste de sa vie. En 1827 il se maria avec Caroline Guignard, avec qui il a eu douze enfants.
